--- a/biology/Botanique/Château_de_Malherbes/Château_de_Malherbes.xlsx
+++ b/biology/Botanique/Château_de_Malherbes/Château_de_Malherbes.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Ch%C3%A2teau_de_Malherbes</t>
+          <t>Château_de_Malherbes</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">
 Le château de Malherbes est un domaine viticole de 20 hectares, situé sur la commune de Latresne, en Gironde et la région Nouvelle-Aquitaine.
@@ -494,7 +506,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Ch%C3%A2teau_de_Malherbes</t>
+          <t>Château_de_Malherbes</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -512,11 +524,13 @@
           <t>Histoire du domaine</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Le château est créé à la fin du XIVe siècle par Guilhem de Malherbes, chevalier revenant des Croisades. La présence d'une maison noble est attestée depuis le XVIe siècle.
-C'est un domaine viticole de 20 hectares, dont 12 hectares de vignes. Il se situe sur la rive droite du vignoble bordelais, en AOC Cadillac Côtes de Bordeaux[1],[2].
-En 2014, Mikhaïl Bereshchanskii, homme d’affaires russe, achète la propriété pour y investir[3].
+C'est un domaine viticole de 20 hectares, dont 12 hectares de vignes. Il se situe sur la rive droite du vignoble bordelais, en AOC Cadillac Côtes de Bordeaux,.
+En 2014, Mikhaïl Bereshchanskii, homme d’affaires russe, achète la propriété pour y investir.
 En 2021, un nouveau chai « par gravité » est construit sur le site[réf. souhaitée].
 </t>
         </is>
@@ -528,7 +542,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Ch%C3%A2teau_de_Malherbes</t>
+          <t>Château_de_Malherbes</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -546,13 +560,15 @@
           <t>Terroir et cépages</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">
 Le vignoble est d'un seul tenant, conduit en agriculture raisonnée. Les vignes anciennes ont plus de 40 ans, l'âge moyen s'établit autour de 25 ans.
 Le sol est constitué d'une alternance de graves et d'argiles sur un sous-sol argilo-calcaire favorisant un drainage optimal.
 [réf. nécessaire]
-Les cépages typiques du vignoble bordelais y sont plantés : merlot, cabernet franc et cabernet sauvignon pour les rouges, sauvignon blanc et sémillon pour le blanc[4].
+Les cépages typiques du vignoble bordelais y sont plantés : merlot, cabernet franc et cabernet sauvignon pour les rouges, sauvignon blanc et sémillon pour le blanc.
 </t>
         </is>
       </c>
@@ -563,7 +579,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Ch%C3%A2teau_de_Malherbes</t>
+          <t>Château_de_Malherbes</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -581,10 +597,12 @@
           <t>Vins</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t>Les vendanges s’effectuent à la main et en cagette. Les baies sont ensuite placées en chambre froide avant de bénéficier d’un tri par densité sélectionnant uniquement les plus mûres. S’ensuivent une macération pré-fermentaire à froid, une fermentation alcoolique en cuve et une fermentation malolactique en barrique. Le vin est ensuite élevé dans des barriques neuves.[réf. nécessaire]
-Le domaine produit trois vins[4] :
+Le domaine produit trois vins :
 Le Château de Malherbes, vin rouge
 Le Château de Malherbes, Grand Vin blanc
 Malherbes, Grand Vin rouge</t>
@@ -597,7 +615,7 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>Ch%C3%A2teau_de_Malherbes</t>
+          <t>Château_de_Malherbes</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
@@ -615,10 +633,12 @@
           <t>Architecture</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
         <is>
           <t xml:space="preserve">Le logis a été reconstruit au XIXe siècle dans un genre rappelant le XVIe siècle.[réf. nécessaire]
-Les communs sont antérieurs avec des parties du XIVe siècle et la majorité construite au XVIIIe siècle[5].
+Les communs sont antérieurs avec des parties du XIVe siècle et la majorité construite au XVIIIe siècle.
 L'ensemble est dans un parc.[réf. nécessaire]
 </t>
         </is>
